--- a/Documentation/TimeSheets/week4/Ben_timesheet_wk4.xlsx
+++ b/Documentation/TimeSheets/week4/Ben_timesheet_wk4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t xml:space="preserve">Team Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine SRS document
+Formatting, Redoing sections</t>
   </si>
   <si>
     <t xml:space="preserve">Total time</t>
@@ -211,17 +215,17 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -311,23 +315,39 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>42965</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.583333333333333</v>
+      </c>
       <c r="G9" s="6" t="n">
         <f aca="false">(F9-E9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>0.0833333333333334</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>42967</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.04166666666667</v>
+      </c>
       <c r="G10" s="6" t="n">
         <f aca="false">(F10-E10)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,11 +372,11 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="8" t="n">
         <f aca="false">SUM(G7:G12)</f>
-        <v>0.3125</v>
+        <v>0.645833333333334</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
